--- a/energypaper/results/formated_results.xlsx
+++ b/energypaper/results/formated_results.xlsx
@@ -9,13 +9,13 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="refs" sheetId="1" r:id="rId1"/>
     <sheet name="moo" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
@@ -224,8 +224,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="3">
-    <numFmt numFmtId="164" formatCode="0.000"/>
+  <numFmts count="2">
     <numFmt numFmtId="165" formatCode="0.0%"/>
     <numFmt numFmtId="166" formatCode="0.0"/>
   </numFmts>
@@ -269,10 +268,10 @@
   <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Prozent" xfId="1" builtinId="5"/>
@@ -580,8 +579,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J55"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="B55" sqref="B55"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:C1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -658,31 +657,31 @@
       <c r="A3" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="2">
+      <c r="B3" s="5">
         <v>1.6461901679044</v>
       </c>
-      <c r="C3" s="2">
+      <c r="C3" s="5">
         <v>1.6461901679044899</v>
       </c>
-      <c r="D3" s="2">
+      <c r="D3" s="5">
         <v>2.3283139055939799</v>
       </c>
-      <c r="E3" s="2">
+      <c r="E3" s="5">
         <v>7.6085227551057804</v>
       </c>
-      <c r="F3" s="2">
+      <c r="F3" s="5">
         <v>8.7148907806574805</v>
       </c>
-      <c r="G3" s="2">
+      <c r="G3" s="5">
         <v>-0.57427351904842205</v>
       </c>
-      <c r="H3" s="2">
+      <c r="H3" s="5">
         <v>-0.57427351904955304</v>
       </c>
-      <c r="I3" s="2">
+      <c r="I3" s="5">
         <v>5.29084211628009</v>
       </c>
-      <c r="J3" s="2">
+      <c r="J3" s="5">
         <v>2.3499784278833298</v>
       </c>
     </row>
@@ -1426,31 +1425,31 @@
       <c r="A32" t="s">
         <v>26</v>
       </c>
-      <c r="B32" s="3">
+      <c r="B32" s="2">
         <v>0.20641787855419899</v>
       </c>
-      <c r="C32" s="3">
+      <c r="C32" s="2">
         <v>0.206417878554188</v>
       </c>
-      <c r="D32" s="3">
+      <c r="D32" s="2">
         <v>0.100732150600664</v>
       </c>
-      <c r="E32" s="3">
+      <c r="E32" s="2">
         <v>0.48578713894645698</v>
       </c>
-      <c r="F32" s="3">
-        <v>0</v>
-      </c>
-      <c r="G32" s="3">
+      <c r="F32" s="2">
+        <v>0</v>
+      </c>
+      <c r="G32" s="2">
         <v>0.243836095417372</v>
       </c>
-      <c r="H32" s="3">
+      <c r="H32" s="2">
         <v>0.243836095417376</v>
       </c>
-      <c r="I32" s="3">
+      <c r="I32" s="2">
         <v>0.80503110460732097</v>
       </c>
-      <c r="J32" s="3">
+      <c r="J32" s="2">
         <v>0.51282276363447199</v>
       </c>
     </row>
@@ -1458,31 +1457,31 @@
       <c r="A33" t="s">
         <v>27</v>
       </c>
-      <c r="B33" s="3">
+      <c r="B33" s="2">
         <v>0.64842869161286498</v>
       </c>
-      <c r="C33" s="3">
+      <c r="C33" s="2">
         <v>0.64842869161287497</v>
       </c>
-      <c r="D33" s="3">
+      <c r="D33" s="2">
         <v>0.96689440790748005</v>
       </c>
-      <c r="E33" s="3">
+      <c r="E33" s="2">
         <v>0.96509391532863698</v>
       </c>
-      <c r="F33" s="3">
+      <c r="F33" s="2">
         <v>1</v>
       </c>
-      <c r="G33" s="3">
-        <v>0</v>
-      </c>
-      <c r="H33" s="3">
-        <v>0</v>
-      </c>
-      <c r="I33" s="3">
+      <c r="G33" s="2">
+        <v>0</v>
+      </c>
+      <c r="H33" s="2">
+        <v>0</v>
+      </c>
+      <c r="I33" s="2">
         <v>0.96324755020348396</v>
       </c>
-      <c r="J33" s="3">
+      <c r="J33" s="2">
         <v>0.96629821937045501</v>
       </c>
     </row>
@@ -1490,31 +1489,31 @@
       <c r="A34" t="s">
         <v>28</v>
       </c>
-      <c r="B34" s="3">
+      <c r="B34" s="2">
         <v>0.35157130838713502</v>
       </c>
-      <c r="C34" s="3">
+      <c r="C34" s="2">
         <v>0.35157130838712503</v>
       </c>
-      <c r="D34" s="3">
-        <v>0</v>
-      </c>
-      <c r="E34" s="3">
-        <v>0</v>
-      </c>
-      <c r="F34" s="3">
-        <v>0</v>
-      </c>
-      <c r="G34" s="3">
-        <v>0</v>
-      </c>
-      <c r="H34" s="3">
-        <v>0</v>
-      </c>
-      <c r="I34" s="3">
-        <v>0</v>
-      </c>
-      <c r="J34" s="3">
+      <c r="D34" s="2">
+        <v>0</v>
+      </c>
+      <c r="E34" s="2">
+        <v>0</v>
+      </c>
+      <c r="F34" s="2">
+        <v>0</v>
+      </c>
+      <c r="G34" s="2">
+        <v>0</v>
+      </c>
+      <c r="H34" s="2">
+        <v>0</v>
+      </c>
+      <c r="I34" s="2">
+        <v>0</v>
+      </c>
+      <c r="J34" s="2">
         <v>0</v>
       </c>
     </row>
@@ -1522,31 +1521,31 @@
       <c r="A35" t="s">
         <v>29</v>
       </c>
-      <c r="B35" s="3">
-        <v>0</v>
-      </c>
-      <c r="C35" s="3">
-        <v>0</v>
-      </c>
-      <c r="D35" s="3">
-        <v>0</v>
-      </c>
-      <c r="E35" s="3">
-        <v>0</v>
-      </c>
-      <c r="F35" s="3">
-        <v>0</v>
-      </c>
-      <c r="G35" s="3">
+      <c r="B35" s="2">
+        <v>0</v>
+      </c>
+      <c r="C35" s="2">
+        <v>0</v>
+      </c>
+      <c r="D35" s="2">
+        <v>0</v>
+      </c>
+      <c r="E35" s="2">
+        <v>0</v>
+      </c>
+      <c r="F35" s="2">
+        <v>0</v>
+      </c>
+      <c r="G35" s="2">
         <v>5.3780400407788904E-3</v>
       </c>
-      <c r="H35" s="3">
+      <c r="H35" s="2">
         <v>5.3780400407789104E-3</v>
       </c>
-      <c r="I35" s="3">
-        <v>0</v>
-      </c>
-      <c r="J35" s="3">
+      <c r="I35" s="2">
+        <v>0</v>
+      </c>
+      <c r="J35" s="2">
         <v>0</v>
       </c>
     </row>
@@ -1554,31 +1553,31 @@
       <c r="A36" t="s">
         <v>30</v>
       </c>
-      <c r="B36" s="3">
-        <v>0</v>
-      </c>
-      <c r="C36" s="3">
-        <v>0</v>
-      </c>
-      <c r="D36" s="3">
-        <v>0</v>
-      </c>
-      <c r="E36" s="3">
-        <v>0</v>
-      </c>
-      <c r="F36" s="3">
-        <v>0</v>
-      </c>
-      <c r="G36" s="3">
+      <c r="B36" s="2">
+        <v>0</v>
+      </c>
+      <c r="C36" s="2">
+        <v>0</v>
+      </c>
+      <c r="D36" s="2">
+        <v>0</v>
+      </c>
+      <c r="E36" s="2">
+        <v>0</v>
+      </c>
+      <c r="F36" s="2">
+        <v>0</v>
+      </c>
+      <c r="G36" s="2">
         <v>0.99462195995922098</v>
       </c>
-      <c r="H36" s="3">
+      <c r="H36" s="2">
         <v>0.99462195995922098</v>
       </c>
-      <c r="I36" s="3">
-        <v>0</v>
-      </c>
-      <c r="J36" s="3">
+      <c r="I36" s="2">
+        <v>0</v>
+      </c>
+      <c r="J36" s="2">
         <v>0</v>
       </c>
     </row>
@@ -1586,44 +1585,44 @@
       <c r="A37" t="s">
         <v>31</v>
       </c>
-      <c r="B37" s="3">
-        <v>0</v>
-      </c>
-      <c r="C37" s="3">
-        <v>0</v>
-      </c>
-      <c r="D37" s="3">
+      <c r="B37" s="2">
+        <v>0</v>
+      </c>
+      <c r="C37" s="2">
+        <v>0</v>
+      </c>
+      <c r="D37" s="2">
         <v>3.3105592092519599E-2</v>
       </c>
-      <c r="E37" s="3">
+      <c r="E37" s="2">
         <v>3.4906084671363503E-2</v>
       </c>
-      <c r="F37" s="3">
-        <v>0</v>
-      </c>
-      <c r="G37" s="3">
-        <v>0</v>
-      </c>
-      <c r="H37" s="3">
-        <v>0</v>
-      </c>
-      <c r="I37" s="3">
+      <c r="F37" s="2">
+        <v>0</v>
+      </c>
+      <c r="G37" s="2">
+        <v>0</v>
+      </c>
+      <c r="H37" s="2">
+        <v>0</v>
+      </c>
+      <c r="I37" s="2">
         <v>3.6752449796516297E-2</v>
       </c>
-      <c r="J37" s="3">
+      <c r="J37" s="2">
         <v>3.3701780629544903E-2</v>
       </c>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B38" s="4"/>
-      <c r="C38" s="4"/>
-      <c r="D38" s="4"/>
-      <c r="E38" s="4"/>
-      <c r="F38" s="4"/>
-      <c r="G38" s="4"/>
-      <c r="H38" s="4"/>
-      <c r="I38" s="4"/>
-      <c r="J38" s="4"/>
+      <c r="B38" s="3"/>
+      <c r="C38" s="3"/>
+      <c r="D38" s="3"/>
+      <c r="E38" s="3"/>
+      <c r="F38" s="3"/>
+      <c r="G38" s="3"/>
+      <c r="H38" s="3"/>
+      <c r="I38" s="3"/>
+      <c r="J38" s="3"/>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
@@ -2045,31 +2044,31 @@
       <c r="A54" t="s">
         <v>45</v>
       </c>
-      <c r="B54" s="5">
+      <c r="B54" s="4">
         <v>1800.5</v>
       </c>
-      <c r="C54" s="5">
+      <c r="C54" s="4">
         <v>1800.1809921264601</v>
       </c>
-      <c r="D54" s="5">
+      <c r="D54" s="4">
         <v>660.20996856689499</v>
       </c>
-      <c r="E54" s="5">
+      <c r="E54" s="4">
         <v>672.13780403137196</v>
       </c>
-      <c r="F54" s="5">
+      <c r="F54" s="4">
         <v>23.0623073577881</v>
       </c>
-      <c r="G54" s="5">
+      <c r="G54" s="4">
         <v>5011.1170616149902</v>
       </c>
-      <c r="H54" s="5">
+      <c r="H54" s="4">
         <v>1826.7303104400601</v>
       </c>
-      <c r="I54" s="5">
+      <c r="I54" s="4">
         <v>787.35462188720703</v>
       </c>
-      <c r="J54" s="5">
+      <c r="J54" s="4">
         <v>767.79638862609897</v>
       </c>
     </row>
@@ -2077,31 +2076,31 @@
       <c r="A55" t="s">
         <v>46</v>
       </c>
-      <c r="B55" s="3">
+      <c r="B55" s="2">
         <v>1.3244671868309301E-2</v>
       </c>
-      <c r="C55" s="3">
+      <c r="C55" s="2">
         <v>1.31206731117134E-2</v>
       </c>
-      <c r="D55" s="3">
+      <c r="D55" s="2">
         <v>5.7649587998205602E-3</v>
       </c>
-      <c r="E55" s="3">
+      <c r="E55" s="2">
         <v>2.4279122926851001E-3</v>
       </c>
-      <c r="F55" s="3">
+      <c r="F55" s="2">
         <v>3.2248297542680701E-3</v>
       </c>
-      <c r="G55" s="3">
+      <c r="G55" s="2">
         <v>9.9953296866323003E-3</v>
       </c>
-      <c r="H55" s="3">
+      <c r="H55" s="2">
         <v>9.9985475420656302E-3</v>
       </c>
-      <c r="I55" s="3">
+      <c r="I55" s="2">
         <v>3.1100011119665999E-3</v>
       </c>
-      <c r="J55" s="3">
+      <c r="J55" s="2">
         <v>2.1724666811423102E-3</v>
       </c>
     </row>
@@ -2114,11 +2113,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K55"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I17" sqref="I17"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="E25" sqref="E25:J25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="0" hidden="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
@@ -2194,34 +2197,34 @@
       <c r="A3" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="2">
+      <c r="B3" s="5">
         <v>2.32794643469451</v>
       </c>
-      <c r="C3" s="2">
+      <c r="C3" s="5">
         <v>1.7248019042545299</v>
       </c>
-      <c r="D3" s="2">
+      <c r="D3" s="5">
         <v>1.5480364865671501</v>
       </c>
-      <c r="E3" s="2">
+      <c r="E3" s="5">
         <v>-0.57427351909722801</v>
       </c>
-      <c r="F3" s="2">
+      <c r="F3" s="5">
         <v>-0.57427351909722901</v>
       </c>
-      <c r="G3" s="2">
+      <c r="G3" s="5">
         <v>-0.57427351904909896</v>
       </c>
-      <c r="H3" s="2">
+      <c r="H3" s="5">
         <v>-0.84596985215667497</v>
       </c>
-      <c r="I3" s="2">
+      <c r="I3" s="5">
         <v>-1.39360625575113</v>
       </c>
-      <c r="J3" s="2">
+      <c r="J3" s="5">
         <v>-1.8786150106549599</v>
       </c>
-      <c r="K3" s="2">
+      <c r="K3" s="5">
         <v>-2.3718079964925498</v>
       </c>
     </row>
@@ -2649,34 +2652,34 @@
       <c r="A18" t="s">
         <v>15</v>
       </c>
-      <c r="B18" s="5">
+      <c r="B18" s="4">
         <v>68.191199999999995</v>
       </c>
-      <c r="C18" s="5">
+      <c r="C18" s="4">
         <v>68.468400000000003</v>
       </c>
-      <c r="D18" s="5">
+      <c r="D18" s="4">
         <v>68.88</v>
       </c>
-      <c r="E18" s="5">
+      <c r="E18" s="4">
         <v>69.814800000000005</v>
       </c>
-      <c r="F18" s="5">
+      <c r="F18" s="4">
         <v>69.814800000000005</v>
       </c>
-      <c r="G18" s="5">
+      <c r="G18" s="4">
         <v>69.814800000000005</v>
       </c>
-      <c r="H18" s="5">
+      <c r="H18" s="4">
         <v>69.7851</v>
       </c>
-      <c r="I18" s="5">
+      <c r="I18" s="4">
         <v>67.239999999999995</v>
       </c>
-      <c r="J18" s="5">
+      <c r="J18" s="4">
         <v>70.52</v>
       </c>
-      <c r="K18" s="5">
+      <c r="K18" s="4">
         <v>70.52</v>
       </c>
     </row>
@@ -3034,34 +3037,34 @@
       <c r="A32" t="s">
         <v>26</v>
       </c>
-      <c r="B32" s="3">
+      <c r="B32" s="2">
         <v>0.10073215059695199</v>
       </c>
-      <c r="C32" s="3">
+      <c r="C32" s="2">
         <v>9.6534589863482401E-2</v>
       </c>
-      <c r="D32" s="3">
+      <c r="D32" s="2">
         <v>9.38404786357247E-2</v>
       </c>
-      <c r="E32" s="3">
+      <c r="E32" s="2">
         <v>0.243836095418166</v>
       </c>
-      <c r="F32" s="3">
+      <c r="F32" s="2">
         <v>0.243836095418166</v>
       </c>
-      <c r="G32" s="3">
+      <c r="G32" s="2">
         <v>0.243836095417378</v>
       </c>
-      <c r="H32" s="3">
+      <c r="H32" s="2">
         <v>0.237854151402143</v>
       </c>
-      <c r="I32" s="3">
+      <c r="I32" s="2">
         <v>0.24005321871985899</v>
       </c>
-      <c r="J32" s="3">
+      <c r="J32" s="2">
         <v>0.21771460737267201</v>
       </c>
-      <c r="K32" s="3">
+      <c r="K32" s="2">
         <v>0.34230587387933997</v>
       </c>
     </row>
@@ -3069,34 +3072,34 @@
       <c r="A33" t="s">
         <v>27</v>
       </c>
-      <c r="B33" s="3">
+      <c r="B33" s="2">
         <v>0.96519182243299295</v>
       </c>
-      <c r="C33" s="3">
+      <c r="C33" s="2">
         <v>0.96566219098894301</v>
       </c>
-      <c r="D33" s="3">
+      <c r="D33" s="2">
         <v>0.97128212614286502</v>
       </c>
-      <c r="E33" s="3">
-        <v>0</v>
-      </c>
-      <c r="F33" s="3">
-        <v>0</v>
-      </c>
-      <c r="G33" s="3">
-        <v>0</v>
-      </c>
-      <c r="H33" s="3">
-        <v>0</v>
-      </c>
-      <c r="I33" s="3">
-        <v>0</v>
-      </c>
-      <c r="J33" s="3">
-        <v>0</v>
-      </c>
-      <c r="K33" s="3">
+      <c r="E33" s="2">
+        <v>0</v>
+      </c>
+      <c r="F33" s="2">
+        <v>0</v>
+      </c>
+      <c r="G33" s="2">
+        <v>0</v>
+      </c>
+      <c r="H33" s="2">
+        <v>0</v>
+      </c>
+      <c r="I33" s="2">
+        <v>0</v>
+      </c>
+      <c r="J33" s="2">
+        <v>0</v>
+      </c>
+      <c r="K33" s="2">
         <v>0</v>
       </c>
     </row>
@@ -3104,34 +3107,34 @@
       <c r="A34" t="s">
         <v>28</v>
       </c>
-      <c r="B34" s="3">
-        <v>0</v>
-      </c>
-      <c r="C34" s="3">
-        <v>0</v>
-      </c>
-      <c r="D34" s="3">
-        <v>0</v>
-      </c>
-      <c r="E34" s="3">
-        <v>0</v>
-      </c>
-      <c r="F34" s="3">
-        <v>0</v>
-      </c>
-      <c r="G34" s="3">
-        <v>0</v>
-      </c>
-      <c r="H34" s="3">
-        <v>0</v>
-      </c>
-      <c r="I34" s="3">
-        <v>0</v>
-      </c>
-      <c r="J34" s="3">
-        <v>0</v>
-      </c>
-      <c r="K34" s="3">
+      <c r="B34" s="2">
+        <v>0</v>
+      </c>
+      <c r="C34" s="2">
+        <v>0</v>
+      </c>
+      <c r="D34" s="2">
+        <v>0</v>
+      </c>
+      <c r="E34" s="2">
+        <v>0</v>
+      </c>
+      <c r="F34" s="2">
+        <v>0</v>
+      </c>
+      <c r="G34" s="2">
+        <v>0</v>
+      </c>
+      <c r="H34" s="2">
+        <v>0</v>
+      </c>
+      <c r="I34" s="2">
+        <v>0</v>
+      </c>
+      <c r="J34" s="2">
+        <v>0</v>
+      </c>
+      <c r="K34" s="2">
         <v>5.8417713078376801E-2</v>
       </c>
     </row>
@@ -3139,34 +3142,34 @@
       <c r="A35" t="s">
         <v>29</v>
       </c>
-      <c r="B35" s="3">
-        <v>0</v>
-      </c>
-      <c r="C35" s="3">
-        <v>0</v>
-      </c>
-      <c r="D35" s="3">
-        <v>0</v>
-      </c>
-      <c r="E35" s="3">
+      <c r="B35" s="2">
+        <v>0</v>
+      </c>
+      <c r="C35" s="2">
+        <v>0</v>
+      </c>
+      <c r="D35" s="2">
+        <v>0</v>
+      </c>
+      <c r="E35" s="2">
         <v>5.3780400407785001E-3</v>
       </c>
-      <c r="F35" s="3">
+      <c r="F35" s="2">
         <v>5.3780400407785001E-3</v>
       </c>
-      <c r="G35" s="3">
+      <c r="G35" s="2">
         <v>5.3780400407789399E-3</v>
       </c>
-      <c r="H35" s="3">
+      <c r="H35" s="2">
         <v>5.38475971278537E-3</v>
       </c>
-      <c r="I35" s="3">
+      <c r="I35" s="2">
         <v>7.2911533629573099E-3</v>
       </c>
-      <c r="J35" s="3">
+      <c r="J35" s="2">
         <v>5.4122177785324403E-3</v>
       </c>
-      <c r="K35" s="3">
+      <c r="K35" s="2">
         <v>2.2380150229925201E-3</v>
       </c>
     </row>
@@ -3174,34 +3177,34 @@
       <c r="A36" t="s">
         <v>30</v>
       </c>
-      <c r="B36" s="3">
-        <v>0</v>
-      </c>
-      <c r="C36" s="3">
-        <v>0</v>
-      </c>
-      <c r="D36" s="3">
-        <v>0</v>
-      </c>
-      <c r="E36" s="3">
+      <c r="B36" s="2">
+        <v>0</v>
+      </c>
+      <c r="C36" s="2">
+        <v>0</v>
+      </c>
+      <c r="D36" s="2">
+        <v>0</v>
+      </c>
+      <c r="E36" s="2">
         <v>0.99462195995922098</v>
       </c>
-      <c r="F36" s="3">
+      <c r="F36" s="2">
         <v>0.99462195995922098</v>
       </c>
-      <c r="G36" s="3">
+      <c r="G36" s="2">
         <v>0.99462195995922098</v>
       </c>
-      <c r="H36" s="3">
+      <c r="H36" s="2">
         <v>0.99461524028721504</v>
       </c>
-      <c r="I36" s="3">
+      <c r="I36" s="2">
         <v>0.94848854149850004</v>
       </c>
-      <c r="J36" s="3">
+      <c r="J36" s="2">
         <v>0.99458778222146804</v>
       </c>
-      <c r="K36" s="3">
+      <c r="K36" s="2">
         <v>0.93934427189863101</v>
       </c>
     </row>
@@ -3209,34 +3212,34 @@
       <c r="A37" t="s">
         <v>31</v>
       </c>
-      <c r="B37" s="3">
+      <c r="B37" s="2">
         <v>3.4808177567006597E-2</v>
       </c>
-      <c r="C37" s="3">
+      <c r="C37" s="2">
         <v>3.4337809011057499E-2</v>
       </c>
-      <c r="D37" s="3">
+      <c r="D37" s="2">
         <v>2.8717873857135399E-2</v>
       </c>
-      <c r="E37" s="3">
-        <v>0</v>
-      </c>
-      <c r="F37" s="3">
-        <v>0</v>
-      </c>
-      <c r="G37" s="3">
-        <v>0</v>
-      </c>
-      <c r="H37" s="3">
-        <v>0</v>
-      </c>
-      <c r="I37" s="3">
+      <c r="E37" s="2">
+        <v>0</v>
+      </c>
+      <c r="F37" s="2">
+        <v>0</v>
+      </c>
+      <c r="G37" s="2">
+        <v>0</v>
+      </c>
+      <c r="H37" s="2">
+        <v>0</v>
+      </c>
+      <c r="I37" s="2">
         <v>4.4220305138542797E-2</v>
       </c>
-      <c r="J37" s="3">
-        <v>0</v>
-      </c>
-      <c r="K37" s="3">
+      <c r="J37" s="2">
+        <v>0</v>
+      </c>
+      <c r="K37" s="2">
         <v>0</v>
       </c>
     </row>
@@ -3699,34 +3702,34 @@
       <c r="A54" t="s">
         <v>45</v>
       </c>
-      <c r="B54" s="5">
+      <c r="B54" s="4">
         <v>1190.5020370483401</v>
       </c>
-      <c r="C54" s="5">
+      <c r="C54" s="4">
         <v>91.945516586303697</v>
       </c>
-      <c r="D54" s="5">
+      <c r="D54" s="4">
         <v>2795.3925113678001</v>
       </c>
-      <c r="E54" s="5">
+      <c r="E54" s="4">
         <v>18000.680002212499</v>
       </c>
-      <c r="F54" s="5">
+      <c r="F54" s="4">
         <v>13851.053586959801</v>
       </c>
-      <c r="G54" s="5">
+      <c r="G54" s="4">
         <v>18000.4524879456</v>
       </c>
-      <c r="H54" s="5">
+      <c r="H54" s="4">
         <v>18000.0818119049</v>
       </c>
-      <c r="I54" s="5">
+      <c r="I54" s="4">
         <v>18001.9459953308</v>
       </c>
-      <c r="J54" s="5">
+      <c r="J54" s="4">
         <v>3811.86913299561</v>
       </c>
-      <c r="K54" s="5">
+      <c r="K54" s="4">
         <v>18000.103811264002</v>
       </c>
     </row>
@@ -3734,34 +3737,34 @@
       <c r="A55" t="s">
         <v>46</v>
       </c>
-      <c r="B55" s="3">
+      <c r="B55" s="2">
         <v>3.09282931063414E-3</v>
       </c>
-      <c r="C55" s="3">
+      <c r="C55" s="2">
         <v>3.4446144954203999E-3</v>
       </c>
-      <c r="D55" s="3">
+      <c r="D55" s="2">
         <v>9.6214790390038805E-3</v>
       </c>
-      <c r="E55" s="3">
+      <c r="E55" s="2">
         <v>1.21145449585948E-2</v>
       </c>
-      <c r="F55" s="3">
+      <c r="F55" s="2">
         <v>9.9990475508167798E-3</v>
       </c>
-      <c r="G55" s="3">
+      <c r="G55" s="2">
         <v>1.06541779036852E-2</v>
       </c>
-      <c r="H55" s="3">
+      <c r="H55" s="2">
         <v>1.02411604091784E-2</v>
       </c>
-      <c r="I55" s="3">
+      <c r="I55" s="2">
         <v>5.2205351478720102E-2</v>
       </c>
-      <c r="J55" s="3">
+      <c r="J55" s="2">
         <v>9.9928306723189204E-3</v>
       </c>
-      <c r="K55" s="3">
+      <c r="K55" s="2">
         <v>0.47669850224636001</v>
       </c>
     </row>
